--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T16:44:32+00:00</t>
+    <t>2025-02-21T13:42:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T13:42:12+00:00</t>
+    <t>2025-02-24T10:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-ballot</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T10:50:39+00:00</t>
+    <t>2025-02-24T14:10:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T14:10:11+00:00</t>
+    <t>2025-02-24T16:02:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T16:02:24+00:00</t>
+    <t>2025-02-24T16:08:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T16:08:57+00:00</t>
+    <t>2025-02-26T09:10:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-26T09:10:45+00:00</t>
+    <t>2025-02-26T10:01:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-26T10:01:20+00:00</t>
+    <t>2025-02-26T10:12:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-26T10:12:26+00:00</t>
+    <t>2025-03-25T10:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T10:12:59+00:00</t>
+    <t>2025-07-08T07:51:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2310,17 +2310,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.5078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="61.7734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="50.828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="23.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.95703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="43.578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="19.8828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2329,21 +2329,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="11.40234375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="35.69140625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="120.0625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="50.03125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="30.6015625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="102.93359375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="42.89453125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T15:24:06+00:00</t>
+    <t>2025-07-30T08:12:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:12:57+00:00</t>
+    <t>2025-07-30T08:37:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:37:32+00:00</t>
+    <t>2025-07-30T16:41:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:41:01+00:00</t>
+    <t>2025-07-30T16:51:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:51:38+00:00</t>
+    <t>2025-07-30T16:53:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:53:20+00:00</t>
+    <t>2025-07-30T16:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:54:54+00:00</t>
+    <t>2025-07-31T08:12:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:22:53+00:00</t>
+    <t>2025-07-31T14:57:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T14:57:51+00:00</t>
+    <t>2025-07-31T15:04:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T15:04:06+00:00</t>
+    <t>2025-07-31T17:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T17:00:40+00:00</t>
+    <t>2025-07-31T17:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T17:28:56+00:00</t>
+    <t>2025-08-01T05:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T05:49:55+00:00</t>
+    <t>2025-08-01T06:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7454,17 +7454,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.0546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="54.74609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.2265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="63.859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="27.5703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -7473,21 +7473,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="83.3515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="144.1953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="92.91796875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="64.48046875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="97.22265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="168.19140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="108.3828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="75.2109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:09:21+00:00</t>
+    <t>2025-08-01T06:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7454,17 +7454,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.2265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="63.859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="27.5703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.0546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="54.74609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -7473,21 +7473,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="97.22265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="108.3828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="75.2109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="83.3515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="92.91796875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="64.48046875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:28:22+00:00</t>
+    <t>2025-08-01T06:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:41:28+00:00</t>
+    <t>2025-08-01T06:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7454,17 +7454,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.0546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="54.74609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.2265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="63.859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="27.5703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -7473,21 +7473,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="83.3515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="144.1953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="92.91796875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="64.48046875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="97.22265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="168.19140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="108.3828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="75.2109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:58:18+00:00</t>
+    <t>2025-09-16T12:38:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T12:38:50+00:00</t>
+    <t>2025-09-17T15:36:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:36:32+00:00</t>
+    <t>2025-09-17T15:51:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:51:47+00:00</t>
+    <t>2025-09-19T12:04:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-19T12:04:16+00:00</t>
+    <t>2025-09-24T12:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
